--- a/doc/excel/[sample_importUserAllInfo]系统账号信息一张表导入.xlsx
+++ b/doc/excel/[sample_importUserAllInfo]系统账号信息一张表导入.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\doc\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C01815-B1AA-40BF-9901-52BEA6EFA9C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0771562-686C-4D15-8EDF-E39F147D40B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="1950" windowWidth="25005" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="1845" windowWidth="26040" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -157,6 +157,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -183,7 +191,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -200,6 +208,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -510,7 +521,7 @@
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
